--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vwf-Tnfrsf11b.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vwf-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Tnfrsf11b</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.9698064957253</v>
+        <v>32.27937499999999</v>
       </c>
       <c r="H2">
-        <v>20.9698064957253</v>
+        <v>96.83812499999999</v>
       </c>
       <c r="I2">
-        <v>0.3383777977849396</v>
+        <v>0.4310459465194891</v>
       </c>
       <c r="J2">
-        <v>0.3383777977849396</v>
+        <v>0.4310459465194891</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>6.44565234315336</v>
+        <v>0.07580833333333332</v>
       </c>
       <c r="N2">
-        <v>6.44565234315336</v>
+        <v>0.227425</v>
       </c>
       <c r="O2">
-        <v>0.9720033103033034</v>
+        <v>0.01036056733223033</v>
       </c>
       <c r="P2">
-        <v>0.9720033103033034</v>
+        <v>0.01036056733223033</v>
       </c>
       <c r="Q2">
-        <v>135.1640823746443</v>
+        <v>2.447045619791666</v>
       </c>
       <c r="R2">
-        <v>135.1640823746443</v>
+        <v>22.023410578125</v>
       </c>
       <c r="S2">
-        <v>0.3289043395801031</v>
+        <v>0.004465880552200121</v>
       </c>
       <c r="T2">
-        <v>0.3289043395801031</v>
+        <v>0.004465880552200122</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,123 +590,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.9698064957253</v>
+        <v>32.27937499999999</v>
       </c>
       <c r="H3">
-        <v>20.9698064957253</v>
+        <v>96.83812499999999</v>
       </c>
       <c r="I3">
-        <v>0.3383777977849396</v>
+        <v>0.4310459465194891</v>
       </c>
       <c r="J3">
-        <v>0.3383777977849396</v>
+        <v>0.4310459465194891</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.185654644002951</v>
+        <v>6.93109</v>
       </c>
       <c r="N3">
-        <v>0.185654644002951</v>
+        <v>20.79327</v>
       </c>
       <c r="O3">
-        <v>0.02799668969669656</v>
+        <v>0.9472576624920083</v>
       </c>
       <c r="P3">
-        <v>0.02799668969669656</v>
+        <v>0.9472576624920083</v>
       </c>
       <c r="Q3">
-        <v>3.89314195977465</v>
+        <v>223.73125326875</v>
       </c>
       <c r="R3">
-        <v>3.89314195977465</v>
+        <v>2013.58127941875</v>
       </c>
       <c r="S3">
-        <v>0.009473458204836492</v>
+        <v>0.4083115757267065</v>
       </c>
       <c r="T3">
-        <v>0.009473458204836492</v>
+        <v>0.4083115757267065</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.19786746831179</v>
+        <v>32.27937499999999</v>
       </c>
       <c r="H4">
-        <v>1.19786746831179</v>
+        <v>96.83812499999999</v>
       </c>
       <c r="I4">
-        <v>0.01932930358933886</v>
+        <v>0.4310459465194891</v>
       </c>
       <c r="J4">
-        <v>0.01932930358933886</v>
+        <v>0.4310459465194891</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.44565234315336</v>
+        <v>0.3101076666666667</v>
       </c>
       <c r="N4">
-        <v>6.44565234315336</v>
+        <v>0.930323</v>
       </c>
       <c r="O4">
-        <v>0.9720033103033034</v>
+        <v>0.04238177017576132</v>
       </c>
       <c r="P4">
-        <v>0.9720033103033034</v>
+        <v>0.04238177017576132</v>
       </c>
       <c r="Q4">
-        <v>7.721037253911073</v>
+        <v>10.01008166270833</v>
       </c>
       <c r="R4">
-        <v>7.721037253911073</v>
+        <v>90.09073496437499</v>
       </c>
       <c r="S4">
-        <v>0.0187881470746949</v>
+        <v>0.01826849024058249</v>
       </c>
       <c r="T4">
-        <v>0.0187881470746949</v>
+        <v>0.01826849024058249</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,433 +714,929 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.19786746831179</v>
+        <v>0.04778033333333333</v>
       </c>
       <c r="H5">
-        <v>1.19786746831179</v>
+        <v>0.143341</v>
       </c>
       <c r="I5">
-        <v>0.01932930358933886</v>
+        <v>0.0006380395843068018</v>
       </c>
       <c r="J5">
-        <v>0.01932930358933886</v>
+        <v>0.0006380395843068017</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.185654644002951</v>
+        <v>0.07580833333333332</v>
       </c>
       <c r="N5">
-        <v>0.185654644002951</v>
+        <v>0.227425</v>
       </c>
       <c r="O5">
-        <v>0.02799668969669656</v>
+        <v>0.01036056733223033</v>
       </c>
       <c r="P5">
-        <v>0.02799668969669656</v>
+        <v>0.01036056733223033</v>
       </c>
       <c r="Q5">
-        <v>0.2223896583921416</v>
+        <v>0.003622147436111111</v>
       </c>
       <c r="R5">
-        <v>0.2223896583921416</v>
+        <v>0.032599326925</v>
       </c>
       <c r="S5">
-        <v>0.0005411565146439632</v>
+        <v>6.61045207383887E-06</v>
       </c>
       <c r="T5">
-        <v>0.0005411565146439632</v>
+        <v>6.61045207383887E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.83019972475398</v>
+        <v>0.04778033333333333</v>
       </c>
       <c r="H6">
-        <v>1.83019972475398</v>
+        <v>0.143341</v>
       </c>
       <c r="I6">
-        <v>0.02953288827415258</v>
+        <v>0.0006380395843068018</v>
       </c>
       <c r="J6">
-        <v>0.02953288827415258</v>
+        <v>0.0006380395843068017</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.44565234315336</v>
+        <v>6.93109</v>
       </c>
       <c r="N6">
-        <v>6.44565234315336</v>
+        <v>20.79327</v>
       </c>
       <c r="O6">
-        <v>0.9720033103033034</v>
+        <v>0.9472576624920083</v>
       </c>
       <c r="P6">
-        <v>0.9720033103033034</v>
+        <v>0.9472576624920083</v>
       </c>
       <c r="Q6">
-        <v>11.79683114429913</v>
+        <v>0.3311697905633333</v>
       </c>
       <c r="R6">
-        <v>11.79683114429913</v>
+        <v>2.98052811507</v>
       </c>
       <c r="S6">
-        <v>0.02870606516529392</v>
+        <v>0.0006043878852078337</v>
       </c>
       <c r="T6">
-        <v>0.02870606516529392</v>
+        <v>0.0006043878852078336</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.83019972475398</v>
+        <v>0.04778033333333333</v>
       </c>
       <c r="H7">
-        <v>1.83019972475398</v>
+        <v>0.143341</v>
       </c>
       <c r="I7">
-        <v>0.02953288827415258</v>
+        <v>0.0006380395843068018</v>
       </c>
       <c r="J7">
-        <v>0.02953288827415258</v>
+        <v>0.0006380395843068017</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.185654644002951</v>
+        <v>0.3101076666666667</v>
       </c>
       <c r="N7">
-        <v>0.185654644002951</v>
+        <v>0.930323</v>
       </c>
       <c r="O7">
-        <v>0.02799668969669656</v>
+        <v>0.04238177017576132</v>
       </c>
       <c r="P7">
-        <v>0.02799668969669656</v>
+        <v>0.04238177017576132</v>
       </c>
       <c r="Q7">
-        <v>0.3397850783534991</v>
+        <v>0.01481704768255556</v>
       </c>
       <c r="R7">
-        <v>0.3397850783534991</v>
+        <v>0.133353429143</v>
       </c>
       <c r="S7">
-        <v>0.0008268231088586583</v>
+        <v>2.704124702512916E-05</v>
       </c>
       <c r="T7">
-        <v>0.0008268231088586583</v>
+        <v>2.704124702512916E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>37.6470660821969</v>
+        <v>1.456971666666667</v>
       </c>
       <c r="H8">
-        <v>37.6470660821969</v>
+        <v>4.370915</v>
       </c>
       <c r="I8">
-        <v>0.6074892162955683</v>
+        <v>0.01945582066289732</v>
       </c>
       <c r="J8">
-        <v>0.6074892162955683</v>
+        <v>0.01945582066289732</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>6.44565234315336</v>
+        <v>0.07580833333333332</v>
       </c>
       <c r="N8">
-        <v>6.44565234315336</v>
+        <v>0.227425</v>
       </c>
       <c r="O8">
-        <v>0.9720033103033034</v>
+        <v>0.01036056733223033</v>
       </c>
       <c r="P8">
-        <v>0.9720033103033034</v>
+        <v>0.01036056733223033</v>
       </c>
       <c r="Q8">
-        <v>242.6598997055618</v>
+        <v>0.1104505937638889</v>
       </c>
       <c r="R8">
-        <v>242.6598997055618</v>
+        <v>0.9940553438749999</v>
       </c>
       <c r="S8">
-        <v>0.5904815292128519</v>
+        <v>0.0002015733399817458</v>
       </c>
       <c r="T8">
-        <v>0.5904815292128519</v>
+        <v>0.0002015733399817458</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>37.6470660821969</v>
+        <v>1.456971666666667</v>
       </c>
       <c r="H9">
-        <v>37.6470660821969</v>
+        <v>4.370915</v>
       </c>
       <c r="I9">
-        <v>0.6074892162955683</v>
+        <v>0.01945582066289732</v>
       </c>
       <c r="J9">
-        <v>0.6074892162955683</v>
+        <v>0.01945582066289732</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.185654644002951</v>
+        <v>6.93109</v>
       </c>
       <c r="N9">
-        <v>0.185654644002951</v>
+        <v>20.79327</v>
       </c>
       <c r="O9">
-        <v>0.02799668969669656</v>
+        <v>0.9472576624920083</v>
       </c>
       <c r="P9">
-        <v>0.02799668969669656</v>
+        <v>0.9472576624920083</v>
       </c>
       <c r="Q9">
-        <v>6.989352651245837</v>
+        <v>10.09840174911667</v>
       </c>
       <c r="R9">
-        <v>6.989352651245837</v>
+        <v>90.88561574205001</v>
       </c>
       <c r="S9">
-        <v>0.01700768708271641</v>
+        <v>0.01842967520299983</v>
       </c>
       <c r="T9">
-        <v>0.01700768708271641</v>
+        <v>0.01842967520299982</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.326639431300393</v>
+        <v>1.456971666666667</v>
       </c>
       <c r="H10">
-        <v>0.326639431300393</v>
+        <v>4.370915</v>
       </c>
       <c r="I10">
-        <v>0.005270794056000618</v>
+        <v>0.01945582066289732</v>
       </c>
       <c r="J10">
-        <v>0.005270794056000618</v>
+        <v>0.01945582066289732</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.44565234315336</v>
+        <v>0.3101076666666667</v>
       </c>
       <c r="N10">
-        <v>6.44565234315336</v>
+        <v>0.930323</v>
       </c>
       <c r="O10">
-        <v>0.9720033103033034</v>
+        <v>0.04238177017576132</v>
       </c>
       <c r="P10">
-        <v>0.9720033103033034</v>
+        <v>0.04238177017576132</v>
       </c>
       <c r="Q10">
-        <v>2.105404215727659</v>
+        <v>0.4518180839494445</v>
       </c>
       <c r="R10">
-        <v>2.105404215727659</v>
+        <v>4.066362755545</v>
       </c>
       <c r="S10">
-        <v>0.005123229270359576</v>
+        <v>0.0008245721199157425</v>
       </c>
       <c r="T10">
-        <v>0.005123229270359576</v>
+        <v>0.0008245721199157424</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.932656333333333</v>
+      </c>
+      <c r="H11">
+        <v>5.797969</v>
+      </c>
+      <c r="I11">
+        <v>0.02580792467321787</v>
+      </c>
+      <c r="J11">
+        <v>0.02580792467321787</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.07580833333333332</v>
+      </c>
+      <c r="N11">
+        <v>0.227425</v>
+      </c>
+      <c r="O11">
+        <v>0.01036056733223033</v>
+      </c>
+      <c r="P11">
+        <v>0.01036056733223033</v>
+      </c>
+      <c r="Q11">
+        <v>0.1465114555361111</v>
+      </c>
+      <c r="R11">
+        <v>1.318603099825</v>
+      </c>
+      <c r="S11">
+        <v>0.0002673847412820022</v>
+      </c>
+      <c r="T11">
+        <v>0.0002673847412820022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.932656333333333</v>
+      </c>
+      <c r="H12">
+        <v>5.797969</v>
+      </c>
+      <c r="I12">
+        <v>0.02580792467321787</v>
+      </c>
+      <c r="J12">
+        <v>0.02580792467321787</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>6.93109</v>
+      </c>
+      <c r="N12">
+        <v>20.79327</v>
+      </c>
+      <c r="O12">
+        <v>0.9472576624920083</v>
+      </c>
+      <c r="P12">
+        <v>0.9472576624920083</v>
+      </c>
+      <c r="Q12">
+        <v>13.39541498540333</v>
+      </c>
+      <c r="R12">
+        <v>120.55873486863</v>
+      </c>
+      <c r="S12">
+        <v>0.02444675439972219</v>
+      </c>
+      <c r="T12">
+        <v>0.02444675439972219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.932656333333333</v>
+      </c>
+      <c r="H13">
+        <v>5.797969</v>
+      </c>
+      <c r="I13">
+        <v>0.02580792467321787</v>
+      </c>
+      <c r="J13">
+        <v>0.02580792467321787</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.3101076666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.930323</v>
+      </c>
+      <c r="O13">
+        <v>0.04238177017576132</v>
+      </c>
+      <c r="P13">
+        <v>0.04238177017576132</v>
+      </c>
+      <c r="Q13">
+        <v>0.5993315459985555</v>
+      </c>
+      <c r="R13">
+        <v>5.393983913987</v>
+      </c>
+      <c r="S13">
+        <v>0.00109378553221368</v>
+      </c>
+      <c r="T13">
+        <v>0.00109378553221368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>38.75974866666667</v>
+      </c>
+      <c r="H14">
+        <v>116.279246</v>
+      </c>
+      <c r="I14">
+        <v>0.5175822812827338</v>
+      </c>
+      <c r="J14">
+        <v>0.5175822812827336</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.07580833333333332</v>
+      </c>
+      <c r="N14">
+        <v>0.227425</v>
+      </c>
+      <c r="O14">
+        <v>0.01036056733223033</v>
+      </c>
+      <c r="P14">
+        <v>0.01036056733223033</v>
+      </c>
+      <c r="Q14">
+        <v>2.938311946838889</v>
+      </c>
+      <c r="R14">
+        <v>26.44480752155</v>
+      </c>
+      <c r="S14">
+        <v>0.005362446075199141</v>
+      </c>
+      <c r="T14">
+        <v>0.00536244607519914</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>38.75974866666667</v>
+      </c>
+      <c r="H15">
+        <v>116.279246</v>
+      </c>
+      <c r="I15">
+        <v>0.5175822812827338</v>
+      </c>
+      <c r="J15">
+        <v>0.5175822812827336</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.93109</v>
+      </c>
+      <c r="N15">
+        <v>20.79327</v>
+      </c>
+      <c r="O15">
+        <v>0.9472576624920083</v>
+      </c>
+      <c r="P15">
+        <v>0.9472576624920083</v>
+      </c>
+      <c r="Q15">
+        <v>268.6473063860467</v>
+      </c>
+      <c r="R15">
+        <v>2417.82575747442</v>
+      </c>
+      <c r="S15">
+        <v>0.4902837819151635</v>
+      </c>
+      <c r="T15">
+        <v>0.4902837819151634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.326639431300393</v>
-      </c>
-      <c r="H11">
-        <v>0.326639431300393</v>
-      </c>
-      <c r="I11">
-        <v>0.005270794056000618</v>
-      </c>
-      <c r="J11">
-        <v>0.005270794056000618</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.185654644002951</v>
-      </c>
-      <c r="N11">
-        <v>0.185654644002951</v>
-      </c>
-      <c r="O11">
-        <v>0.02799668969669656</v>
-      </c>
-      <c r="P11">
-        <v>0.02799668969669656</v>
-      </c>
-      <c r="Q11">
-        <v>0.06064212733540084</v>
-      </c>
-      <c r="R11">
-        <v>0.06064212733540084</v>
-      </c>
-      <c r="S11">
-        <v>0.000147564785641042</v>
-      </c>
-      <c r="T11">
-        <v>0.000147564785641042</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>38.75974866666667</v>
+      </c>
+      <c r="H16">
+        <v>116.279246</v>
+      </c>
+      <c r="I16">
+        <v>0.5175822812827338</v>
+      </c>
+      <c r="J16">
+        <v>0.5175822812827336</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.3101076666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.930323</v>
+      </c>
+      <c r="O16">
+        <v>0.04238177017576132</v>
+      </c>
+      <c r="P16">
+        <v>0.04238177017576132</v>
+      </c>
+      <c r="Q16">
+        <v>12.01969521960645</v>
+      </c>
+      <c r="R16">
+        <v>108.177256976458</v>
+      </c>
+      <c r="S16">
+        <v>0.02193605329237107</v>
+      </c>
+      <c r="T16">
+        <v>0.02193605329237107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4096263333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.228879</v>
+      </c>
+      <c r="I17">
+        <v>0.005469987277355107</v>
+      </c>
+      <c r="J17">
+        <v>0.005469987277355105</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.07580833333333332</v>
+      </c>
+      <c r="N17">
+        <v>0.227425</v>
+      </c>
+      <c r="O17">
+        <v>0.01036056733223033</v>
+      </c>
+      <c r="P17">
+        <v>0.01036056733223033</v>
+      </c>
+      <c r="Q17">
+        <v>0.03105308961944444</v>
+      </c>
+      <c r="R17">
+        <v>0.279477806575</v>
+      </c>
+      <c r="S17">
+        <v>5.667217149348084E-05</v>
+      </c>
+      <c r="T17">
+        <v>5.667217149348083E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4096263333333334</v>
+      </c>
+      <c r="H18">
+        <v>1.228879</v>
+      </c>
+      <c r="I18">
+        <v>0.005469987277355107</v>
+      </c>
+      <c r="J18">
+        <v>0.005469987277355105</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.93109</v>
+      </c>
+      <c r="N18">
+        <v>20.79327</v>
+      </c>
+      <c r="O18">
+        <v>0.9472576624920083</v>
+      </c>
+      <c r="P18">
+        <v>0.9472576624920083</v>
+      </c>
+      <c r="Q18">
+        <v>2.839156982703334</v>
+      </c>
+      <c r="R18">
+        <v>25.55241284433</v>
+      </c>
+      <c r="S18">
+        <v>0.005181487362208423</v>
+      </c>
+      <c r="T18">
+        <v>0.005181487362208421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4096263333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.228879</v>
+      </c>
+      <c r="I19">
+        <v>0.005469987277355107</v>
+      </c>
+      <c r="J19">
+        <v>0.005469987277355105</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.3101076666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.930323</v>
+      </c>
+      <c r="O19">
+        <v>0.04238177017576132</v>
+      </c>
+      <c r="P19">
+        <v>0.04238177017576132</v>
+      </c>
+      <c r="Q19">
+        <v>0.1270282664352222</v>
+      </c>
+      <c r="R19">
+        <v>1.143254397917</v>
+      </c>
+      <c r="S19">
+        <v>0.0002318277436532025</v>
+      </c>
+      <c r="T19">
+        <v>0.0002318277436532025</v>
       </c>
     </row>
   </sheetData>
